--- a/data-raw/ostds.xlsx
+++ b/data-raw/ostds.xlsx
@@ -1224,9 +1224,9 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="topRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="16"/>
@@ -1653,7 +1653,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>87</v>
@@ -1986,7 +1986,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>87</v>
@@ -2136,7 +2136,7 @@
         <v>0.05</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>85</v>

--- a/data-raw/ostds.xlsx
+++ b/data-raw/ostds.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Documents\GitHub\assignR\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sarah/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4E45A0-3631-874F-8B4E-6B6079951406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="28400" windowHeight="12520"/>
+    <workbookView xWindow="1860" yWindow="460" windowWidth="28400" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="osds" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
   <si>
     <t>High_ID</t>
   </si>
@@ -96,36 +105,6 @@
     <t>Brand et al. 2009 Rapid Comm Mass Spec; Brand et al. 2014 IUPAC Report</t>
   </si>
   <si>
-    <t>USGS</t>
-  </si>
-  <si>
-    <t>MPI-BGC</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>UFZ</t>
-  </si>
-  <si>
-    <t>ANU</t>
-  </si>
-  <si>
-    <t>CIO</t>
-  </si>
-  <si>
-    <t>calibration against cellulose/PEF</t>
-  </si>
-  <si>
-    <t>newly packed GC column, peak detected on mass 28</t>
-  </si>
-  <si>
-    <t>optimal GC column and normalised to reference waters sealed in silver tubes</t>
-  </si>
-  <si>
-    <t>average of values determined with online (MPI Jena)  and offline (Indiana University) methods; measurements from other labs are welcome</t>
-  </si>
-  <si>
     <t>Citation_val</t>
   </si>
   <si>
@@ -192,9 +171,6 @@
     <t>VSMOW_O</t>
   </si>
   <si>
-    <t>comp eqib against UT_O_2</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -300,21 +276,9 @@
     <t>Schimmelmann 2002 IAEA Rep; http://isostandards-crm.com/documentos/productos/coa/IAEA-601.pdf; http://isostandards-crm.com/documentos/productos/coa/IAEA-602.pdf</t>
   </si>
   <si>
-    <t>Texas A&amp;M; comp eqib against SA_O_11</t>
-  </si>
-  <si>
-    <t>Does not have uncertainty</t>
-  </si>
-  <si>
-    <t>cal against a ref water and two barium sulfates using a variety of HTC techniques; average of values determined at six labs (USGS,ETH,CIO,MPI-BGC,UFZ,ANU)</t>
-  </si>
-  <si>
     <t>US_O_1</t>
   </si>
   <si>
-    <t>comp eqib against US_O_1</t>
-  </si>
-  <si>
     <t>OldEC.2_O_2</t>
   </si>
   <si>
@@ -333,25 +297,73 @@
     <t>EC_O_11</t>
   </si>
   <si>
-    <t>calibration against IAEA602/IAEA601 (d18O values: 23.3/71.4)</t>
-  </si>
-  <si>
-    <t>IsoForensics; calibration against IAEA602/IAEA601 (d18O values: 23.3/71.4)</t>
-  </si>
-  <si>
-    <t>Davis; calibration against IAEA602/IAEA601 (d18O values: 23.3/71.4)</t>
-  </si>
-  <si>
-    <t>optimal GC column and normalised to IAEA602/IAEA601; drying not described</t>
-  </si>
-  <si>
     <t>Wassenaar and Hobson 2010 IsoEcol</t>
+  </si>
+  <si>
+    <t>HTC-IRMS with new GC column; calibration to waters sealed in silver tubes; optimal method</t>
+  </si>
+  <si>
+    <t>HTC-IRMS with new GC column; peak detected on mass 28; calibration to waters sealed in silver tube</t>
+  </si>
+  <si>
+    <t>TCEA-IRMS; calibration to cellulose and PEF-1</t>
+  </si>
+  <si>
+    <t>TCEA-IRMS; calibration to US_O_1</t>
+  </si>
+  <si>
+    <t>d18O values: 23.3/71.4</t>
+  </si>
+  <si>
+    <t>TCEA-IRMS; calibration to IAEA_O_1</t>
+  </si>
+  <si>
+    <t>TCEA-IRMS; calibration to IAEA_O_1; IsoForensics</t>
+  </si>
+  <si>
+    <t>TCEA-IRMS; calibration to IAEA_O_1; Davis; uncertainty not reported</t>
+  </si>
+  <si>
+    <t>TCEA-IRMS; calibration to EC_O_7; uncertainty not reported</t>
+  </si>
+  <si>
+    <t>TCEA-IRMS; calibration to UT_O_2</t>
+  </si>
+  <si>
+    <t>Online (MPI-BGC) and offline (Indiana University) methods; average values</t>
+  </si>
+  <si>
+    <t>HTC-IRMS methods; calibration to water and barium sulfates</t>
+  </si>
+  <si>
+    <t>TCEA-IRMS; calibration to water and inorganic standards; USGS</t>
+  </si>
+  <si>
+    <t>HTC-IRMS; calibration to water and inorganic standards; ETH</t>
+  </si>
+  <si>
+    <t>HTC-IRMS; calibration to water and inorganic standards; CIO</t>
+  </si>
+  <si>
+    <t>HTC-IRMS; calibration to water and inorganic standards; MPI-BGC</t>
+  </si>
+  <si>
+    <t>HTC-IRMS; calibration to water and inorganic standards; UFZ</t>
+  </si>
+  <si>
+    <t>HTC-IRMS; calibration to water and inorganic standards; ANU</t>
+  </si>
+  <si>
+    <t>HTC-IRMS with new GC column; calibration to IAEA_O_1; drying method not reported; CRM</t>
+  </si>
+  <si>
+    <t>HTC-IRMS with new GC column; calibration to waters sealed in silver tubes; optimal method; CRM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -724,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -839,6 +851,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -885,65 +912,68 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="42" builtinId="8"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1220,1277 +1250,1386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="N16" sqref="N16"/>
+      <selection pane="topRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="14" width="14.81640625" style="1"/>
+    <col min="1" max="14" width="14.83203125" style="1"/>
     <col min="15" max="15" width="59" style="1" customWidth="1"/>
     <col min="16" max="16" width="58.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="119.31640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="14.81640625" style="1"/>
+    <col min="17" max="17" width="119.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>82</v>
+      <c r="R1" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>12.82</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>0.13</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>0.08</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>5.24</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>0.02</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>0.01</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
+      <c r="Q2" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>5.59</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>0.24</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>5.38</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>0.03</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>5.31</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>0.19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>0.11</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>5.24</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>0.02</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>0.01</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>20.3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>0.3</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>3.8</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>0.3</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>21.46</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>0.03</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>2.5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>0.11</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>21.21</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>0.17</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>0.09</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>2.39</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>0.13</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>4</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>14.85</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5.67</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5.67</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="P8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>13.22</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>0.21</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>0.09</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>3.49</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>0.16</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>6</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="N9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>14.67</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>0.27</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>48</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>0.04</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5.35</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="L10" s="4">
+        <v>48</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5.35</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="L10" s="1">
-        <v>48</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S10" s="5"/>
+      <c r="P10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>25.09</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>0.3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>49</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>0.04</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>6.02</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>0.24</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>50</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>0.03</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S11" s="5"/>
+      <c r="N11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>22.82</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4.66</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4.66</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R12" s="1" t="s">
+      <c r="Q12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="S12" s="5"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>23.45</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4.93</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4.93</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S13" s="5"/>
+      <c r="Q13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>12.26</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>0.05</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>5.95</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>0.11</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>12.22</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>0.12</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>3</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>5.97</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>0.08</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>3</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>0.05</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>11.86</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>6</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>0.03</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="4">
+        <v>5.49</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="L16" s="4">
+        <v>6</v>
+      </c>
+      <c r="M16" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5.49</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="L16" s="1">
-        <v>6</v>
-      </c>
-      <c r="M16" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="P16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>14.11</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0.1</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>18</v>
       </c>
       <c r="G17" s="8">
         <f>E17/SQRT(F17-1)</f>
         <v>2.4253562503633298E-2</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>8.56</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>0.1</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>18</v>
       </c>
       <c r="M17" s="8">
         <f>K17/SQRT(L17-1)</f>
         <v>2.4253562503633298E-2</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
+        <v>15.96</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="4">
+        <v>9.94</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="L18" s="4">
         <v>56</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="M18" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="4">
         <v>14.4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="4">
         <v>0.1</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J19" s="4">
         <v>8.85</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K19" s="4">
         <v>0.15</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="5" t="s">
+      <c r="Q19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="4">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4">
+        <v>23.14</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="4">
+        <v>71.28</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4">
+        <v>23.02</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="4">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4">
+        <v>23.14</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="4">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4">
+        <v>23.03</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="4">
+        <v>71.17</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="4">
+        <v>71.010000000000005</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4">
+        <v>23.42</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="4">
+        <v>72.3</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4">
+        <v>23.48</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="4">
+        <v>71.31</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1">
+      <c r="A28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1">
-        <v>15.96</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="1">
-        <v>9.94</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="L19" s="1">
-        <v>56</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1">
-        <v>23.3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="1">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1">
-        <v>23.14</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="1">
-        <v>71.28</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="1">
-        <v>23.02</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="1">
-        <v>71.260000000000005</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="1">
-        <v>23.14</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="1">
-        <v>71.239999999999995</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1">
-        <v>23.03</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="1">
-        <v>71.17</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="1">
-        <v>22.95</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="1">
-        <v>71.010000000000005</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1">
-        <v>23.42</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="1">
-        <v>72.3</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="1">
-        <v>23.48</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="1">
-        <v>71.31</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="2" customFormat="1">
-      <c r="A28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="10">
         <v>0</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="10">
         <v>-55.5</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="3" t="s">
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O28" r:id="rId1"/>
+    <hyperlink ref="O28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
